--- a/SpawnListMythsAndLegends.xlsx
+++ b/SpawnListMythsAndLegends.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\leonr\IdeaProjects\mythsandlegends-datapack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonr\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE5894E-21F2-4029-A1DD-B140586561A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A8BA5B-A7CE-4F74-ABD2-5676E1A270EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8DB81BC6-4B42-4652-89C4-BE45D5041316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="269">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -377,6 +377,9 @@
     <t>Miraidon</t>
   </si>
   <si>
+    <t>Moltres</t>
+  </si>
+  <si>
     <t>Raikou</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
     <t>Cocoon of Destruction</t>
   </si>
   <si>
+    <t>Saplingo of Life</t>
+  </si>
+  <si>
     <t>Liberty Pass</t>
   </si>
   <si>
@@ -443,6 +449,9 @@
     <t>Lustrous Orb</t>
   </si>
   <si>
+    <t>Tidal Bell &amp; 3 Fire Stones</t>
+  </si>
+  <si>
     <t>Violet Book</t>
   </si>
   <si>
@@ -674,186 +683,213 @@
     <t>Melmetal</t>
   </si>
   <si>
+    <t>cobblemon:is_savanna</t>
+  </si>
+  <si>
+    <t>cobblemon:is_plateau</t>
+  </si>
+  <si>
+    <t>cobblemon:is_mountain</t>
+  </si>
+  <si>
+    <t>cobblemon:is_deep_dark</t>
+  </si>
+  <si>
+    <t>cobblemon:is_cold</t>
+  </si>
+  <si>
+    <t>cobblemon:is_freezing</t>
+  </si>
+  <si>
+    <t>cobblemon:is_snowy_forest</t>
+  </si>
+  <si>
+    <t>cobblemon:is_glacial</t>
+  </si>
+  <si>
+    <t>cobblemon:is_frozen_ocean</t>
+  </si>
+  <si>
+    <t>cobblemon:is_sky</t>
+  </si>
+  <si>
+    <t>cobblemon:is_volcanic</t>
+  </si>
+  <si>
+    <t>cobblemon:is_thermal</t>
+  </si>
+  <si>
+    <t>cobblemon:is_cave</t>
+  </si>
+  <si>
+    <t>cobblemon:is_spooky</t>
+  </si>
+  <si>
+    <t>minecraft:is_jungle</t>
+  </si>
+  <si>
+    <t>cobblemon:is_jungle</t>
+  </si>
+  <si>
+    <t>cobblemon:is_lush</t>
+  </si>
+  <si>
+    <t>cobblemon:is_bamboo</t>
+  </si>
+  <si>
+    <t>cobblemon:is_plains</t>
+  </si>
+  <si>
+    <t>cobblemon:is_grassland</t>
+  </si>
+  <si>
+    <t>cobblemon:is_arid</t>
+  </si>
+  <si>
+    <t>cobblemon:is_badlands</t>
+  </si>
+  <si>
+    <t>cobblemon:is_freshwater</t>
+  </si>
+  <si>
+    <t>cobblemon:is_cold_ocean</t>
+  </si>
+  <si>
+    <t>minecraft:is_deep_ocean</t>
+  </si>
+  <si>
+    <t>cobblemon:is_deep_ocean</t>
+  </si>
+  <si>
+    <t>cobblemon:is_ocean</t>
+  </si>
+  <si>
+    <t>cobblemon:is_summer</t>
+  </si>
+  <si>
+    <t>cobblemon:is_forest</t>
+  </si>
+  <si>
+    <t>cobblemon:is_magical</t>
+  </si>
+  <si>
+    <t>minecraft:cherry_grove</t>
+  </si>
+  <si>
+    <t>cobblemon:is_spring</t>
+  </si>
+  <si>
+    <t>cobblemon:is_coast</t>
+  </si>
+  <si>
+    <t>cobblemon:is_temperate</t>
+  </si>
+  <si>
+    <t>cobblemon:is_beach</t>
+  </si>
+  <si>
+    <t>minecraft:is_ocean</t>
+  </si>
+  <si>
+    <t>cobblemon:is_desert</t>
+  </si>
+  <si>
+    <t>cobblemon:is_highlands</t>
+  </si>
+  <si>
+    <t>cobblemon:is_sparse</t>
+  </si>
+  <si>
+    <t>minecraft:is_end</t>
+  </si>
+  <si>
+    <t>cobblemon:is_peak</t>
+  </si>
+  <si>
+    <t>minecraft:is_nether</t>
+  </si>
+  <si>
+    <t>cobblemon:is_nether_wasteland</t>
+  </si>
+  <si>
+    <t>cobblemon:is_dark</t>
+  </si>
+  <si>
+    <t>cobblemon:is_floral</t>
+  </si>
+  <si>
+    <t>byg:is_magical</t>
+  </si>
+  <si>
+    <t>wythers:is_dark_forest</t>
+  </si>
+  <si>
+    <t>cobblemon:is_tundra</t>
+  </si>
+  <si>
+    <t>cobblemon:is_swamp</t>
+  </si>
+  <si>
+    <t> Tapu Lele</t>
+  </si>
+  <si>
+    <t>Additional Conditions</t>
+  </si>
+  <si>
+    <t>Item Conditions</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
     <r>
-      <t> </t>
+      <t xml:space="preserve">Pokemon with </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tapu Lele</t>
+      <t>GREEN</t>
     </r>
-  </si>
-  <si>
-    <t>cobblemon:is_savanna</t>
-  </si>
-  <si>
-    <t>cobblemon:is_plateau</t>
-  </si>
-  <si>
-    <t>cobblemon:is_mountain</t>
-  </si>
-  <si>
-    <t>cobblemon:is_deep_dark</t>
-  </si>
-  <si>
-    <t>cobblemon:is_cold</t>
-  </si>
-  <si>
-    <t>cobblemon:is_freezing</t>
-  </si>
-  <si>
-    <t>cobblemon:is_snowy_forest</t>
-  </si>
-  <si>
-    <t>cobblemon:is_glacial</t>
-  </si>
-  <si>
-    <t>cobblemon:is_frozen_ocean</t>
-  </si>
-  <si>
-    <t>cobblemon:is_sky</t>
-  </si>
-  <si>
-    <t>cobblemon:is_volcanic</t>
-  </si>
-  <si>
-    <t>cobblemon:is_thermal</t>
-  </si>
-  <si>
-    <t>cobblemon:is_cave</t>
-  </si>
-  <si>
-    <t>cobblemon:is_spooky</t>
-  </si>
-  <si>
-    <t>minecraft:is_jungle</t>
-  </si>
-  <si>
-    <t>cobblemon:is_jungle</t>
-  </si>
-  <si>
-    <t>cobblemon:is_lush</t>
-  </si>
-  <si>
-    <t>cobblemon:is_bamboo</t>
-  </si>
-  <si>
-    <t>cobblemon:is_plains</t>
-  </si>
-  <si>
-    <t>cobblemon:is_grassland</t>
-  </si>
-  <si>
-    <t>cobblemon:is_arid</t>
-  </si>
-  <si>
-    <t>cobblemon:is_badlands</t>
-  </si>
-  <si>
-    <t>cobblemon:is_freshwater</t>
-  </si>
-  <si>
-    <t>cobblemon:is_cold_ocean</t>
-  </si>
-  <si>
-    <t>minecraft:is_deep_ocean</t>
-  </si>
-  <si>
-    <t>cobblemon:is_deep_ocean</t>
-  </si>
-  <si>
-    <t>cobblemon:is_ocean</t>
-  </si>
-  <si>
-    <t>cobblemon:is_summer</t>
-  </si>
-  <si>
-    <t>cobblemon:is_forest</t>
-  </si>
-  <si>
-    <t>cobblemon:is_magical</t>
-  </si>
-  <si>
-    <t>minecraft:cherry_grove</t>
-  </si>
-  <si>
-    <t>cobblemon:is_spring</t>
-  </si>
-  <si>
-    <t>cobblemon:is_coast</t>
-  </si>
-  <si>
-    <t>cobblemon:is_temperate</t>
-  </si>
-  <si>
-    <t>cobblemon:is_beach</t>
-  </si>
-  <si>
-    <t>minecraft:is_ocean</t>
-  </si>
-  <si>
-    <t>cobblemon:is_desert</t>
-  </si>
-  <si>
-    <t>cobblemon:is_highlands</t>
-  </si>
-  <si>
-    <t>cobblemon:is_sparse</t>
-  </si>
-  <si>
-    <t>minecraft:is_end</t>
-  </si>
-  <si>
-    <t>cobblemon:is_peak</t>
-  </si>
-  <si>
-    <t>minecraft:is_nether</t>
-  </si>
-  <si>
-    <t>cobblemon:is_nether_wasteland</t>
-  </si>
-  <si>
-    <t>cobblemon:is_dark</t>
-  </si>
-  <si>
-    <t>cobblemon:is_floral</t>
-  </si>
-  <si>
-    <t>byg:is_magical</t>
-  </si>
-  <si>
-    <t>wythers:is_dark_forest</t>
-  </si>
-  <si>
-    <t>cobblemon:is_tundra</t>
-  </si>
-  <si>
-    <t>cobblemon:is_swamp</t>
-  </si>
-  <si>
-    <t>Sapling of Life</t>
-  </si>
-  <si>
-    <t>Required Items</t>
-  </si>
-  <si>
-    <t>Additional Conditions</t>
-  </si>
-  <si>
-    <t>Model Status</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> names have a model, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ones dont</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,14 +941,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -926,8 +954,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,8 +998,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -959,63 +1023,167 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF457C73"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="thick">
+        <color rgb="FF457C73"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="thick">
+        <color rgb="FF457C73"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color rgb="FF457C73"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF993B4C"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="thick">
+        <color rgb="FF993B4C"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="thick">
+        <color rgb="FF993B4C"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF993B4C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF8D558A"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="thick">
+        <color rgb="FF8D558A"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thick">
+        <color rgb="FF8D558A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8D558A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF707066"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thick">
+        <color rgb="FF707066"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF707066"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF707066"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF1A5D88"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="thick">
+        <color rgb="FF1A5D88"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="thick">
+        <color rgb="FF1A5D88"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF1A5D88"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF703328"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF703328"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF703328"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF703328"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF5A7999"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF5A7999"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF5A7999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF5A7999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF666670"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF666670"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF666670"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666670"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF422843"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF422843"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF422843"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF422843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3A7036"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3A7036"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3A7036"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF3A7036"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF992710"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF992710"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF992710"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF992710"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,68 +1215,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,26 +1623,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF25843-2711-4ADE-8B60-1E9CA4D900D2}">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
-        <v>165</v>
+      <c r="A1" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1453,420 +1651,695 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="28" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27">
+      <c r="A2" s="1">
         <v>144</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="1">
+        <v>144</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="1">
+        <v>144</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="1">
+        <v>144</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="1">
+        <v>144</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="1">
+        <v>144</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="1">
+        <v>144</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="1">
+        <v>144</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="1">
+        <v>144</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="1">
+        <v>144</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="1">
+        <v>144</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="1">
+        <v>144</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27">
+      <c r="A14" s="1">
         <v>145</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>122</v>
+      <c r="B14" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="1">
+        <v>145</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>123</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="1">
+        <v>145</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>123</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="1">
+        <v>145</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="1">
+        <v>146</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="1">
+        <v>146</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="1">
+        <v>146</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="1">
+        <v>146</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="C21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>146</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="27">
+      <c r="A23" s="1">
         <v>150</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>136</v>
+      <c r="D23" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="1">
+        <v>150</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="1">
+        <v>150</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="1">
+        <v>150</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17"/>
+        <v>227</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="1">
+        <v>150</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="27"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="1">
+        <v>150</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
+        <v>228</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="27">
+      <c r="A29" s="1">
         <v>151</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="37" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>137</v>
+        <v>229</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="1">
+        <v>151</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="27"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="1">
+        <v>151</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="27"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="1">
+        <v>151</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="17"/>
+        <v>230</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="27"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="1">
+        <v>151</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="27"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="1">
+        <v>151</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="17"/>
+        <v>232</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="27">
+      <c r="A35" s="1">
         <v>243</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>113</v>
+      <c r="B35" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>133</v>
+      <c r="D35" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="27"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="1">
+        <v>243</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>114</v>
+      </c>
       <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="17"/>
+      <c r="D36" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="27"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="1">
+        <v>243</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>114</v>
+      </c>
       <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="17"/>
+      <c r="D37" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="27"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="1">
+        <v>243</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>114</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
+        <v>233</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="27"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="1">
+        <v>243</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>114</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="17"/>
+        <v>234</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="1">
+        <v>243</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>114</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="27">
+      <c r="A41" s="1">
         <v>244</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E41" s="17" t="s">
@@ -1874,132 +2347,220 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="27"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="1">
+        <v>244</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="17"/>
+      <c r="D42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="27"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="1">
+        <v>244</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="27"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="1">
+        <v>244</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="17"/>
+      <c r="D44" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="27"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="1">
+        <v>244</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="27"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="1">
+        <v>244</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="1">
+        <v>244</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="27"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="1">
+        <v>244</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="17"/>
+        <v>226</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="27"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="1">
+        <v>244</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="17"/>
+        <v>236</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="27">
+      <c r="A50" s="1">
         <v>245</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>116</v>
+      <c r="B50" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>130</v>
+      <c r="D50" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="27"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="1">
+        <v>245</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="C51" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="27"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="1">
+        <v>245</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="17"/>
+        <v>237</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="27"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="1">
+        <v>245</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="C53" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="17"/>
+        <v>238</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="27">
+      <c r="A54" s="1">
         <v>249</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>100</v>
       </c>
       <c r="E54" s="17" t="s">
@@ -2007,61 +2568,101 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="27"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="1">
+        <v>249</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="C55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="17"/>
+      <c r="D55" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="1">
+        <v>249</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="C56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="17"/>
+      <c r="D56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="27"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="1">
+        <v>249</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="C57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>249</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>249</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="27"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="27"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="17"/>
+      <c r="D59" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="27">
+      <c r="A60" s="1">
         <v>250</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E60" s="17" t="s">
@@ -2069,237 +2670,397 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="27"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="1">
+        <v>250</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="C61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="17"/>
+      <c r="D61" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="27"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="1">
+        <v>250</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="C62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="17"/>
+      <c r="D62" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="27"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="1">
+        <v>250</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="17"/>
+        <v>224</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="27"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="1">
+        <v>250</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="C64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="17"/>
+      <c r="D64" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="1">
+        <v>250</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="17"/>
+        <v>242</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="27">
+      <c r="A66" s="1">
         <v>251</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="27"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="1">
+        <v>251</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="D67" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="27"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="1">
+        <v>251</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
+      <c r="D68" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="27"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="1">
+        <v>251</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
+      <c r="D69" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="27"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="1">
+        <v>251</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
+      <c r="D70" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="27"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="1">
+        <v>251</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
+      <c r="D71" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="27"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="1">
+        <v>251</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="D72" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="27"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="1">
+        <v>251</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
+      <c r="D73" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="27"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="1">
+        <v>251</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C74" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
+      <c r="D74" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="27"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="1">
+        <v>251</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
+      <c r="D75" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="27"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="1">
+        <v>251</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C76" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
+      <c r="D76" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="27"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="1">
+        <v>251</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C77" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="27"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="1">
+        <v>251</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C78" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
+        <v>244</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="27"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="1">
+        <v>251</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C79" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="27"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="1">
+        <v>251</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
+        <v>245</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="27"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="1">
+        <v>251</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+        <v>246</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="13">
+      <c r="A82" s="9">
         <v>377</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>189</v>
+      <c r="B82" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="15">
+      <c r="A83" s="13">
         <v>378</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>190</v>
+      <c r="B83" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="13">
+      <c r="A84" s="9">
         <v>379</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>191</v>
+      <c r="B84" s="34" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="20">
+      <c r="A85" s="1">
         <v>380</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="33" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="16" t="s">
         <v>99</v>
       </c>
       <c r="E85" s="17" t="s">
@@ -2307,61 +3068,101 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="21"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="1">
+        <v>380</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="C86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="21"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="1">
+        <v>380</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="C87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="17"/>
+      <c r="D87" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="21"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="1">
+        <v>380</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="C88" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="17"/>
+        <v>247</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="21"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="1">
+        <v>380</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="C89" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="17"/>
+        <v>248</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="22"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="1">
+        <v>380</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="C90" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="17"/>
+        <v>249</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="20">
+      <c r="A91" s="1">
         <v>381</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="16" t="s">
         <v>99</v>
       </c>
       <c r="E91" s="17" t="s">
@@ -2369,61 +3170,101 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="21"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="1">
+        <v>381</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="C92" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="17"/>
+      <c r="D92" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="21"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="1">
+        <v>381</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="C93" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="21"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="1">
+        <v>381</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="17"/>
+        <v>247</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="21"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="1">
+        <v>381</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="C95" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="17"/>
+        <v>248</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="22"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="1">
+        <v>381</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="C96" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="17"/>
+        <v>249</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="20">
+      <c r="A97" s="1">
         <v>382</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E97" s="17" t="s">
@@ -2431,70 +3272,118 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="21"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="1">
+        <v>382</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C98" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="17"/>
+      <c r="D98" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="21"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="1">
+        <v>382</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="17"/>
+      <c r="D99" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="21"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="1">
+        <v>382</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C100" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="17"/>
+      <c r="D100" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="21"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="1">
+        <v>382</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C101" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="17"/>
+      <c r="D101" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="21"/>
-      <c r="B102" s="19"/>
+      <c r="A102" s="1">
+        <v>382</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C102" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="17"/>
+        <v>239</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="22"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="1">
+        <v>382</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C103" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="20">
+      <c r="A104" s="1">
         <v>383</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D104" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E104" s="17" t="s">
@@ -2502,212 +3391,356 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="21"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="1">
+        <v>383</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C105" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="17"/>
+      <c r="D105" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="21"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="1">
+        <v>383</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C106" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="17"/>
+      <c r="D106" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="21"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="1">
+        <v>383</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="17"/>
+      <c r="D107" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="21"/>
-      <c r="B108" s="19"/>
+      <c r="A108" s="1">
+        <v>383</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C108" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="21"/>
-      <c r="B109" s="19"/>
+      <c r="A109" s="1">
+        <v>383</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C109" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="17"/>
+        <v>251</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="21"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="1">
+        <v>383</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C110" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="22"/>
-      <c r="B111" s="19"/>
+      <c r="A111" s="1">
+        <v>383</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="C111" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="17"/>
+        <v>226</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="20">
+      <c r="A112" s="1">
         <v>384</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>114</v>
+      <c r="B112" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D112" s="18" t="s">
-        <v>132</v>
+      <c r="D112" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="21"/>
-      <c r="B113" s="19"/>
+      <c r="A113" s="1">
+        <v>384</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C113" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="17"/>
+      <c r="D113" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="21"/>
-      <c r="B114" s="19"/>
+      <c r="A114" s="1">
+        <v>384</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C114" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="17"/>
+      <c r="D114" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="21"/>
-      <c r="B115" s="19"/>
+      <c r="A115" s="1">
+        <v>384</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C115" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="17"/>
+      <c r="D115" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="21"/>
-      <c r="B116" s="19"/>
+      <c r="A116" s="1">
+        <v>384</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="17"/>
+      <c r="D116" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="21"/>
-      <c r="B117" s="19"/>
+      <c r="A117" s="1">
+        <v>384</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C117" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="17"/>
+        <v>224</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="21"/>
-      <c r="B118" s="19"/>
+      <c r="A118" s="1">
+        <v>384</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C118" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="21"/>
-      <c r="B119" s="19"/>
+      <c r="A119" s="1">
+        <v>384</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C119" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="17"/>
+      <c r="D119" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="22"/>
-      <c r="B120" s="19"/>
+      <c r="A120" s="1">
+        <v>384</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="17"/>
+      <c r="D120" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="20">
+      <c r="A121" s="1">
         <v>385</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D121" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E121" s="26" t="s">
+      <c r="D121" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="21"/>
-      <c r="B122" s="19"/>
+      <c r="A122" s="1">
+        <v>385</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="C122" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="26"/>
+      <c r="D122" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="21"/>
-      <c r="B123" s="19"/>
+      <c r="A123" s="1">
+        <v>385</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="C123" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="26"/>
+        <v>244</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="22"/>
-      <c r="B124" s="19"/>
+      <c r="A124" s="1">
+        <v>385</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="C124" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="26"/>
+        <v>253</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="20">
+      <c r="A125" s="1">
         <v>386</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="16" t="s">
         <v>88</v>
       </c>
       <c r="E125" s="17">
@@ -2715,85 +3748,125 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="21"/>
-      <c r="B126" s="19"/>
+      <c r="A126" s="1">
+        <v>386</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="C126" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="17"/>
+      <c r="D126" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E126" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="21"/>
-      <c r="B127" s="19"/>
+      <c r="A127" s="1">
+        <v>386</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="17"/>
+      <c r="D127" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="21"/>
-      <c r="B128" s="19"/>
+      <c r="A128" s="1">
+        <v>386</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="C128" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="17"/>
+      <c r="D128" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="21"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="1">
+        <v>386</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="C129" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="17"/>
+      <c r="D129" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="22"/>
-      <c r="B130" s="19"/>
+      <c r="A130" s="1">
+        <v>386</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="C130" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E130" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="13">
+      <c r="A131" s="9">
         <v>480</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>192</v>
+      <c r="B131" s="34" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="15">
+      <c r="A132" s="13">
         <v>481</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>193</v>
+      <c r="B132" s="34" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="15">
+      <c r="A133" s="13">
         <v>482</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>194</v>
+      <c r="B133" s="34" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="20">
+      <c r="A134" s="1">
         <v>483</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="33" t="s">
         <v>90</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="16" t="s">
         <v>91</v>
       </c>
       <c r="E134" s="17" t="s">
@@ -2801,188 +3874,316 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="21"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="1">
+        <v>483</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="C135" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="17"/>
+      <c r="D135" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="21"/>
-      <c r="B136" s="19"/>
+      <c r="A136" s="1">
+        <v>483</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="C136" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="21"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="1">
+        <v>483</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="C137" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="22"/>
-      <c r="B138" s="19"/>
+      <c r="A138" s="1">
+        <v>483</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="C138" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="17"/>
+        <v>217</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="20">
+      <c r="A139" s="1">
         <v>484</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D139" s="18" t="s">
-        <v>134</v>
+      <c r="D139" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="E139" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="21"/>
-      <c r="B140" s="19"/>
+      <c r="A140" s="1">
+        <v>484</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C140" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="17"/>
+      <c r="D140" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="21"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="1">
+        <v>484</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C141" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="17"/>
+      <c r="D141" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="21"/>
-      <c r="B142" s="19"/>
+      <c r="A142" s="1">
+        <v>484</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C142" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D142" s="18"/>
-      <c r="E142" s="17"/>
+      <c r="D142" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="21"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="1">
+        <v>484</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C143" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="18"/>
-      <c r="E143" s="17"/>
+      <c r="D143" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="21"/>
-      <c r="B144" s="19"/>
+      <c r="A144" s="1">
+        <v>484</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C144" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="17"/>
+      <c r="D144" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="21"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="1">
+        <v>484</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C145" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="17"/>
+      <c r="D145" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="21"/>
-      <c r="B146" s="19"/>
+      <c r="A146" s="1">
+        <v>484</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C146" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="17"/>
+      <c r="D146" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="21"/>
-      <c r="B147" s="19"/>
+      <c r="A147" s="1">
+        <v>484</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C147" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="17"/>
+      <c r="D147" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="21"/>
-      <c r="B148" s="19"/>
+      <c r="A148" s="1">
+        <v>484</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C148" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="17"/>
+      <c r="D148" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="21"/>
-      <c r="B149" s="19"/>
+      <c r="A149" s="1">
+        <v>484</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C149" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="17"/>
+      <c r="D149" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="21"/>
-      <c r="B150" s="19"/>
+      <c r="A150" s="1">
+        <v>484</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C150" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="22"/>
-      <c r="B151" s="19"/>
+      <c r="A151" s="1">
+        <v>484</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C151" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="17"/>
+      <c r="D151" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="16">
+      <c r="A152" s="14">
         <v>485</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>144</v>
+      <c r="B152" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="20">
+      <c r="A153" s="1">
         <v>487</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E153" s="17" t="s">
@@ -2990,1537 +4191,1996 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="21"/>
-      <c r="B154" s="19"/>
+      <c r="A154" s="1">
+        <v>487</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="C154" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="17"/>
+      <c r="D154" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="21"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="1">
+        <v>487</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="C155" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="17"/>
+        <v>256</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="21"/>
-      <c r="B156" s="19"/>
+      <c r="A156" s="1">
+        <v>487</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="C156" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="17"/>
+        <v>228</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="22"/>
-      <c r="B157" s="19"/>
+      <c r="A157" s="1">
+        <v>487</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="C157" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" s="18"/>
-      <c r="E157" s="17"/>
+        <v>257</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="16">
+      <c r="A158" s="14">
         <v>488</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>143</v>
+      <c r="B158" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="15">
+      <c r="A159" s="13">
         <v>489</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>195</v>
+      <c r="B159" s="34" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="13">
+      <c r="A160" s="9">
         <v>490</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>196</v>
+      <c r="B160" s="34" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="20">
+      <c r="A161" s="1">
         <v>491</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="21"/>
-      <c r="B162" s="19"/>
+      <c r="A162" s="1">
+        <v>491</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="C162" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
+      <c r="D162" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="21"/>
-      <c r="B163" s="19"/>
+      <c r="A163" s="1">
+        <v>491</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="C163" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="21"/>
-      <c r="B164" s="19"/>
+      <c r="A164" s="1">
+        <v>491</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="C164" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
+        <v>258</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="22"/>
-      <c r="B165" s="19"/>
+      <c r="A165" s="1">
+        <v>491</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="C165" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
+        <v>218</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="20">
+      <c r="A166" s="1">
         <v>492</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>115</v>
+      <c r="B166" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D166" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E166" s="18">
+      <c r="D166" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="21"/>
-      <c r="B167" s="19"/>
+      <c r="A167" s="1">
+        <v>492</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C167" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
+      <c r="D167" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="21"/>
-      <c r="B168" s="19"/>
+      <c r="A168" s="1">
+        <v>492</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C168" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
+      <c r="D168" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="21"/>
-      <c r="B169" s="19"/>
+      <c r="A169" s="1">
+        <v>492</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C169" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
+      <c r="D169" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="21"/>
-      <c r="B170" s="19"/>
+      <c r="A170" s="1">
+        <v>492</v>
+      </c>
+      <c r="B170" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C170" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
+      <c r="D170" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="21"/>
-      <c r="B171" s="19"/>
+      <c r="A171" s="1">
+        <v>492</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C171" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
+      <c r="D171" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E171" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="21"/>
-      <c r="B172" s="19"/>
+      <c r="A172" s="1">
+        <v>492</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C172" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
+      <c r="D172" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="21"/>
-      <c r="B173" s="19"/>
+      <c r="A173" s="1">
+        <v>492</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C173" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
+      <c r="D173" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E173" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="21"/>
-      <c r="B174" s="19"/>
+      <c r="A174" s="1">
+        <v>492</v>
+      </c>
+      <c r="B174" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C174" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
+      <c r="D174" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E174" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="21"/>
-      <c r="B175" s="19"/>
+      <c r="A175" s="1">
+        <v>492</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C175" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
+        <v>259</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E175" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="21"/>
-      <c r="B176" s="19"/>
+      <c r="A176" s="1">
+        <v>492</v>
+      </c>
+      <c r="B176" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C176" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
+        <v>234</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E176" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="22"/>
-      <c r="B177" s="19"/>
+      <c r="A177" s="1">
+        <v>492</v>
+      </c>
+      <c r="B177" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="C177" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="20">
+      <c r="A178" s="1">
         <v>493</v>
       </c>
-      <c r="B178" s="19" t="s">
+      <c r="B178" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="21"/>
-      <c r="B179" s="19"/>
+      <c r="A179" s="1">
+        <v>493</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C179" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
+      <c r="D179" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="21"/>
-      <c r="B180" s="19"/>
+      <c r="A180" s="1">
+        <v>493</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C180" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
+      <c r="D180" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="21"/>
-      <c r="B181" s="19"/>
+      <c r="A181" s="1">
+        <v>493</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C181" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
+      <c r="D181" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="21"/>
-      <c r="B182" s="19"/>
+      <c r="A182" s="1">
+        <v>493</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C182" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
+      <c r="D182" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="21"/>
-      <c r="B183" s="19"/>
+      <c r="A183" s="1">
+        <v>493</v>
+      </c>
+      <c r="B183" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C183" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
+      <c r="D183" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="21"/>
-      <c r="B184" s="19"/>
+      <c r="A184" s="1">
+        <v>493</v>
+      </c>
+      <c r="B184" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C184" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
+        <v>260</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="21"/>
-      <c r="B185" s="19"/>
+      <c r="A185" s="1">
+        <v>493</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C185" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
+        <v>261</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="21"/>
-      <c r="B186" s="19"/>
+      <c r="A186" s="1">
+        <v>493</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C186" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
+      <c r="D186" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="21"/>
-      <c r="B187" s="19"/>
+      <c r="A187" s="1">
+        <v>493</v>
+      </c>
+      <c r="B187" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C187" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
+      <c r="D187" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="21"/>
-      <c r="B188" s="19"/>
+      <c r="A188" s="1">
+        <v>493</v>
+      </c>
+      <c r="B188" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C188" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
+      <c r="D188" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="21"/>
-      <c r="B189" s="19"/>
+      <c r="A189" s="1">
+        <v>493</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C189" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
+      <c r="D189" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="21"/>
-      <c r="B190" s="19"/>
+      <c r="A190" s="1">
+        <v>493</v>
+      </c>
+      <c r="B190" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C190" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
+      <c r="D190" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="21"/>
-      <c r="B191" s="19"/>
+      <c r="A191" s="1">
+        <v>493</v>
+      </c>
+      <c r="B191" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C191" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="21"/>
-      <c r="B192" s="19"/>
+      <c r="A192" s="1">
+        <v>493</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C192" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
+      <c r="D192" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="21"/>
-      <c r="B193" s="19"/>
+      <c r="A193" s="1">
+        <v>493</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C193" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
+      <c r="D193" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="21"/>
-      <c r="B194" s="19"/>
+      <c r="A194" s="1">
+        <v>493</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C194" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
+      <c r="D194" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="22"/>
-      <c r="B195" s="19"/>
+      <c r="A195" s="1">
+        <v>493</v>
+      </c>
+      <c r="B195" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C195" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
+        <v>254</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="23">
+      <c r="A196" s="13">
         <v>494</v>
       </c>
-      <c r="B196" s="19" t="s">
-        <v>117</v>
+      <c r="B196" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D196" s="18" t="s">
-        <v>129</v>
+      <c r="D196" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="E196" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="24"/>
-      <c r="B197" s="19"/>
+    <row r="197" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A197" s="13">
+        <v>494</v>
+      </c>
+      <c r="B197" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="C197" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D197" s="18"/>
-      <c r="E197" s="17"/>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1">
-      <c r="A198" s="24"/>
-      <c r="B198" s="19"/>
+      <c r="D197" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A198" s="26">
+        <v>494</v>
+      </c>
+      <c r="B198" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="C198" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D198" s="18"/>
-      <c r="E198" s="17"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="24"/>
-      <c r="B199" s="19"/>
+      <c r="D198" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A199" s="26">
+        <v>494</v>
+      </c>
+      <c r="B199" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="C199" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D199" s="18"/>
-      <c r="E199" s="17"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="24"/>
-      <c r="B200" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A200" s="26">
+        <v>494</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="C200" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D200" s="18"/>
-      <c r="E200" s="17"/>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="25"/>
-      <c r="B201" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A201" s="26">
+        <v>494</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="C201" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D201" s="18"/>
-      <c r="E201" s="17"/>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="15">
+        <v>215</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A202" s="26">
         <v>638</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="15">
+      <c r="B202" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A203" s="26">
         <v>639</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="15">
+      <c r="B203" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickTop="1">
+      <c r="A204" s="13">
         <v>640</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>199</v>
+      <c r="B204" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="13">
+      <c r="A205" s="9">
         <v>641</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>145</v>
+      <c r="B205" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="D205" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="13">
+        <v>642</v>
+      </c>
+      <c r="B206" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="8">
+        <v>643</v>
+      </c>
+      <c r="B207" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="14">
+        <v>644</v>
+      </c>
+      <c r="B208" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="13">
+        <v>645</v>
+      </c>
+      <c r="B209" s="35" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="15">
-        <v>642</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="14">
-        <v>643</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="16">
-        <v>644</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="15">
-        <v>645</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="20">
+      <c r="A210" s="1">
         <v>646</v>
       </c>
-      <c r="B210" s="19" t="s">
+      <c r="B210" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D210" s="18" t="s">
-        <v>138</v>
+      <c r="D210" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="E210" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="21"/>
-      <c r="B211" s="19"/>
+      <c r="A211" s="1">
+        <v>646</v>
+      </c>
+      <c r="B211" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C211" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D211" s="18"/>
-      <c r="E211" s="17"/>
+      <c r="D211" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E211" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="21"/>
-      <c r="B212" s="19"/>
+      <c r="A212" s="1">
+        <v>646</v>
+      </c>
+      <c r="B212" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C212" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D212" s="18"/>
-      <c r="E212" s="17"/>
+      <c r="D212" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E212" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="21"/>
-      <c r="B213" s="19"/>
+      <c r="A213" s="1">
+        <v>646</v>
+      </c>
+      <c r="B213" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C213" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D213" s="18"/>
-      <c r="E213" s="17"/>
+        <v>220</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E213" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="21"/>
-      <c r="B214" s="19"/>
+      <c r="A214" s="1">
+        <v>646</v>
+      </c>
+      <c r="B214" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C214" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D214" s="18"/>
-      <c r="E214" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E214" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="22"/>
-      <c r="B215" s="19"/>
+      <c r="A215" s="1">
+        <v>646</v>
+      </c>
+      <c r="B215" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C215" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D215" s="18"/>
-      <c r="E215" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E215" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="15">
+      <c r="A216" s="13">
         <v>647</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>200</v>
+      <c r="B216" s="34" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="15">
+      <c r="A217" s="13">
         <v>648</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>201</v>
+      <c r="B217" s="34" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="15">
+      <c r="A218" s="13">
         <v>649</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>202</v>
+      <c r="B218" s="34" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="20">
+      <c r="A219" s="1">
         <v>716</v>
       </c>
-      <c r="B219" s="19" t="s">
-        <v>118</v>
+      <c r="B219" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D219" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E219" s="18">
+      <c r="D219" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E219" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="21"/>
-      <c r="B220" s="19"/>
+      <c r="A220" s="1">
+        <v>716</v>
+      </c>
+      <c r="B220" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C220" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
+      <c r="D220" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E220" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="21"/>
-      <c r="B221" s="19"/>
+      <c r="A221" s="1">
+        <v>716</v>
+      </c>
+      <c r="B221" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C221" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
+      <c r="D221" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E221" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="21"/>
-      <c r="B222" s="19"/>
+      <c r="A222" s="1">
+        <v>716</v>
+      </c>
+      <c r="B222" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C222" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E222" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="21"/>
-      <c r="B223" s="19"/>
+      <c r="A223" s="1">
+        <v>716</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C223" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
+        <v>244</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E223" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="22"/>
-      <c r="B224" s="19"/>
+      <c r="A224" s="1">
+        <v>716</v>
+      </c>
+      <c r="B224" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C224" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
+        <v>259</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E224" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="20">
+      <c r="A225" s="1">
         <v>717</v>
       </c>
-      <c r="B225" s="19" t="s">
-        <v>119</v>
+      <c r="B225" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D225" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E225" s="18">
+      <c r="D225" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E225" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="21"/>
-      <c r="B226" s="19"/>
+      <c r="A226" s="1">
+        <v>717</v>
+      </c>
+      <c r="B226" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="C226" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
+      <c r="D226" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E226" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="21"/>
-      <c r="B227" s="19"/>
+      <c r="A227" s="1">
+        <v>717</v>
+      </c>
+      <c r="B227" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="C227" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D227" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E227" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="22"/>
-      <c r="B228" s="19"/>
+      <c r="A228" s="1">
+        <v>717</v>
+      </c>
+      <c r="B228" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="C228" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
+        <v>262</v>
+      </c>
+      <c r="D228" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E228" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="20">
+      <c r="A229" s="1">
         <v>718</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>123</v>
+      <c r="B229" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="18" t="s">
+      <c r="D229" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E229" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>718</v>
+      </c>
+      <c r="B230" s="33" t="s">
         <v>124</v>
-      </c>
-      <c r="E229" s="18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="21"/>
-      <c r="B230" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
+      <c r="D230" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E230" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="21"/>
-      <c r="B231" s="1" t="s">
-        <v>123</v>
+      <c r="A231" s="1">
+        <v>718</v>
+      </c>
+      <c r="B231" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
+      <c r="D231" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E231" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="21"/>
-      <c r="B232" s="1" t="s">
-        <v>123</v>
+      <c r="A232" s="1">
+        <v>718</v>
+      </c>
+      <c r="B232" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
+      <c r="D232" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E232" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="21"/>
-      <c r="B233" s="1" t="s">
-        <v>123</v>
+      <c r="A233" s="1">
+        <v>718</v>
+      </c>
+      <c r="B233" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
+      <c r="D233" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E233" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="21"/>
-      <c r="B234" s="1" t="s">
-        <v>123</v>
+      <c r="A234" s="1">
+        <v>718</v>
+      </c>
+      <c r="B234" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="D234" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E234" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="21"/>
-      <c r="B235" s="1" t="s">
-        <v>123</v>
+      <c r="A235" s="1">
+        <v>718</v>
+      </c>
+      <c r="B235" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
+        <v>227</v>
+      </c>
+      <c r="D235" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E235" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="236" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A236" s="22"/>
-      <c r="B236" s="1" t="s">
-        <v>123</v>
+      <c r="A236" s="1">
+        <v>718</v>
+      </c>
+      <c r="B236" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E236" s="16">
+        <v>70</v>
+      </c>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="15">
+      <c r="A237" s="13">
         <v>719</v>
       </c>
-      <c r="B237" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="15">
+      <c r="B237" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A238" s="13">
         <v>720</v>
       </c>
-      <c r="B238" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="15">
+      <c r="B238" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A239" s="10">
         <v>721</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A240" s="14">
+      <c r="B239" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A240" s="30">
         <v>772</v>
       </c>
-      <c r="B240" s="12" t="s">
+      <c r="B240" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A241" s="8">
+        <v>773</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="8">
+        <v>785</v>
+      </c>
+      <c r="B242" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D242" s="15"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="8">
+        <v>786</v>
+      </c>
+      <c r="B243" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D243" s="15"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="8">
+        <v>787</v>
+      </c>
+      <c r="B244" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="8">
+        <v>788</v>
+      </c>
+      <c r="B245" s="33" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A241" s="14">
-        <v>773</v>
-      </c>
-      <c r="B241" s="12" t="s">
+      <c r="D245" s="15"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="8">
+        <v>789</v>
+      </c>
+      <c r="B246" s="33" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="14">
-        <v>785</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D242" s="10"/>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="14">
-        <v>786</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D243" s="10"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="14">
-        <v>787</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="14">
-        <v>788</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D245" s="10"/>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="14">
-        <v>789</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D246" s="10"/>
+      <c r="D246" s="15"/>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="16">
+      <c r="A247" s="14">
         <v>791</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>161</v>
+      <c r="B247" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="16">
+      <c r="A248" s="14">
         <v>792</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>162</v>
+      <c r="B248" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="14">
+      <c r="A249" s="8">
         <v>800</v>
       </c>
-      <c r="B249" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D249" s="10"/>
+      <c r="B249" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D249" s="15"/>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="15">
+      <c r="A250" s="13">
         <v>801</v>
       </c>
-      <c r="B250" s="9" t="s">
-        <v>206</v>
+      <c r="B250" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="15">
+      <c r="A251" s="13">
         <v>802</v>
       </c>
-      <c r="B251" s="9" t="s">
-        <v>207</v>
+      <c r="B251" s="34" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="13">
+      <c r="A252" s="9">
         <v>807</v>
       </c>
-      <c r="B252" s="9" t="s">
-        <v>208</v>
+      <c r="B252" s="34" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="14">
+      <c r="A253" s="8">
         <v>808</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>141</v>
+      <c r="B253" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F253" s="6"/>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="14">
+      <c r="A254" s="8">
         <v>809</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>211</v>
+      <c r="B254" s="33" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="20">
+      <c r="A255" s="1">
         <v>888</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>120</v>
+      <c r="B255" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D255" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E255" s="18">
+      <c r="D255" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E255" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="21"/>
-      <c r="B256" s="1" t="s">
-        <v>120</v>
+      <c r="A256" s="1">
+        <v>888</v>
+      </c>
+      <c r="B256" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
+      <c r="D256" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E256" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="21"/>
-      <c r="B257" s="1" t="s">
-        <v>120</v>
+      <c r="A257" s="1">
+        <v>888</v>
+      </c>
+      <c r="B257" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D257" s="18"/>
-      <c r="E257" s="18"/>
+        <v>244</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E257" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="21"/>
-      <c r="B258" s="1" t="s">
-        <v>120</v>
+      <c r="A258" s="1">
+        <v>888</v>
+      </c>
+      <c r="B258" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D258" s="18"/>
-      <c r="E258" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E258" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="22"/>
-      <c r="B259" s="1" t="s">
-        <v>120</v>
+      <c r="A259" s="1">
+        <v>888</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D259" s="18"/>
-      <c r="E259" s="18"/>
+        <v>252</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E259" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="20">
+      <c r="A260" s="1">
         <v>889</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>121</v>
+      <c r="B260" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D260" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E260" s="18">
+      <c r="D260" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E260" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="21"/>
-      <c r="B261" s="1" t="s">
-        <v>121</v>
+      <c r="A261" s="1">
+        <v>889</v>
+      </c>
+      <c r="B261" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
+      <c r="D261" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E261" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="21"/>
-      <c r="B262" s="1" t="s">
-        <v>121</v>
+      <c r="A262" s="1">
+        <v>889</v>
+      </c>
+      <c r="B262" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
+        <v>216</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E262" s="16">
+        <v>70</v>
+      </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="21"/>
-      <c r="B263" s="1" t="s">
-        <v>121</v>
+      <c r="A263" s="1">
+        <v>889</v>
+      </c>
+      <c r="B263" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D263" s="18"/>
-      <c r="E263" s="18"/>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="22"/>
-      <c r="B264" s="1" t="s">
-        <v>121</v>
+        <v>215</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E263" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A264" s="1">
+        <v>889</v>
+      </c>
+      <c r="B264" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D264" s="18"/>
-      <c r="E264" s="18"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="14">
+        <v>252</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E264" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A265" s="19">
         <v>890</v>
       </c>
-      <c r="B265" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="14">
+      <c r="B265" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" thickTop="1">
+      <c r="A266" s="8">
         <v>891</v>
       </c>
-      <c r="B266" s="9" t="s">
-        <v>174</v>
+      <c r="B266" s="34" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="14">
+      <c r="A267" s="8">
         <v>892</v>
       </c>
-      <c r="B267" s="9" t="s">
-        <v>175</v>
+      <c r="B267" s="34" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="15">
+      <c r="A268" s="13">
         <v>893</v>
       </c>
-      <c r="B268" s="9" t="s">
-        <v>209</v>
+      <c r="B268" s="34" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="13">
+      <c r="A269" s="9">
         <v>894</v>
       </c>
-      <c r="B269" s="9" t="s">
-        <v>176</v>
+      <c r="B269" s="34" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="13">
+      <c r="A270" s="9">
         <v>895</v>
       </c>
-      <c r="B270" s="9" t="s">
-        <v>177</v>
+      <c r="B270" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="15">
+      <c r="A271" s="13">
         <v>896</v>
       </c>
-      <c r="B271" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="13">
+      <c r="B271" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A272" s="9">
         <v>897</v>
       </c>
-      <c r="B272" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="13">
+      <c r="B272" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A273" s="29">
         <v>898</v>
       </c>
-      <c r="B273" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="16">
+      <c r="B273" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A274" s="31">
         <v>905</v>
       </c>
-      <c r="B274" s="11" t="s">
-        <v>148</v>
+      <c r="B274" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A275" s="32">
         <v>1001</v>
       </c>
-      <c r="B275" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="13">
+      <c r="B275" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A276" s="9">
         <v>1002</v>
       </c>
-      <c r="B276" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="13">
+      <c r="B276" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A277" s="27">
         <v>1003</v>
       </c>
-      <c r="B277" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="13">
+      <c r="B277" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" thickTop="1">
+      <c r="A278" s="9">
         <v>1004</v>
       </c>
-      <c r="B278" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="20">
+      <c r="B278" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A279" s="1">
         <v>1007</v>
       </c>
-      <c r="B279" s="19" t="s">
+      <c r="B279" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D279" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E279" s="18" t="s">
+      <c r="D279" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E279" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="21"/>
-      <c r="B280" s="19"/>
+    <row r="280" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A280" s="23">
+        <v>1007</v>
+      </c>
+      <c r="B280" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="C280" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="21"/>
-      <c r="B281" s="19"/>
+      <c r="D280" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A281" s="23">
+        <v>1007</v>
+      </c>
+      <c r="B281" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="C281" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D281" s="18"/>
-      <c r="E281" s="18"/>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="21"/>
-      <c r="B282" s="19"/>
+      <c r="D281" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A282" s="24">
+        <v>1007</v>
+      </c>
+      <c r="B282" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="C282" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="21"/>
-      <c r="B283" s="19"/>
+      <c r="D282" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A283" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B283" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="C283" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="21"/>
-      <c r="B284" s="19"/>
+        <v>215</v>
+      </c>
+      <c r="D283" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A284" s="25">
+        <v>1007</v>
+      </c>
+      <c r="B284" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="C284" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D284" s="18"/>
-      <c r="E284" s="18"/>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="22"/>
-      <c r="B285" s="19"/>
+        <v>216</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A285" s="25">
+        <v>1007</v>
+      </c>
+      <c r="B285" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="C285" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18"/>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="20">
+        <v>217</v>
+      </c>
+      <c r="D285" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A286" s="25">
         <v>1008</v>
       </c>
-      <c r="B286" s="19" t="s">
+      <c r="B286" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D286" s="18" t="s">
-        <v>135</v>
+      <c r="D286" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="E286" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="21"/>
-      <c r="B287" s="19"/>
+    <row r="287" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A287" s="25">
+        <v>1008</v>
+      </c>
+      <c r="B287" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="C287" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="18"/>
-      <c r="E287" s="17"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="22"/>
-      <c r="B288" s="19"/>
+      <c r="D287" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E287" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A288" s="23">
+        <v>1008</v>
+      </c>
+      <c r="B288" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="C288" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D288" s="18"/>
-      <c r="E288" s="17"/>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="13">
+        <v>218</v>
+      </c>
+      <c r="D288" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E288" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A289" s="21">
         <v>1014</v>
       </c>
-      <c r="B289" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="15">
+      <c r="B289" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A290" s="11">
         <v>1015</v>
       </c>
-      <c r="B290" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="15">
+      <c r="B290" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A291" s="12">
         <v>1016</v>
       </c>
-      <c r="B291" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="16">
+      <c r="B291" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A292" s="28">
         <v>1017</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>142</v>
+      <c r="B292" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A293" s="13">
         <v>1024</v>
       </c>
-      <c r="B293" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="15">
+      <c r="B293" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A294" s="12">
         <v>1025</v>
       </c>
-      <c r="B294" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="B294" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="D295" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A296" s="20"/>
       <c r="D296" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A297" s="22"/>
       <c r="D297" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E2:E13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="D14:D22"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="D85:D90"/>
-    <mergeCell ref="E85:E90"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="E91:E96"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="E60:E65"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="D66:D81"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="A112:A120"/>
-    <mergeCell ref="B112:B120"/>
-    <mergeCell ref="D112:D120"/>
-    <mergeCell ref="E112:E120"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="B104:B111"/>
-    <mergeCell ref="D104:D111"/>
-    <mergeCell ref="E104:E111"/>
-    <mergeCell ref="A139:A151"/>
-    <mergeCell ref="B139:B151"/>
-    <mergeCell ref="D139:D151"/>
-    <mergeCell ref="E139:E151"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="E153:E157"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="D125:D130"/>
-    <mergeCell ref="E125:E130"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A177"/>
-    <mergeCell ref="A178:A195"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="D161:D165"/>
-    <mergeCell ref="E161:E165"/>
-    <mergeCell ref="B166:B177"/>
-    <mergeCell ref="D166:D177"/>
-    <mergeCell ref="E166:E177"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="B210:B215"/>
-    <mergeCell ref="D210:D215"/>
-    <mergeCell ref="E210:E215"/>
-    <mergeCell ref="B178:B195"/>
-    <mergeCell ref="D178:D195"/>
-    <mergeCell ref="E178:E195"/>
-    <mergeCell ref="A229:A236"/>
-    <mergeCell ref="D229:D236"/>
-    <mergeCell ref="E229:E236"/>
-    <mergeCell ref="A255:A259"/>
-    <mergeCell ref="D255:D259"/>
-    <mergeCell ref="E255:E259"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="D219:D224"/>
-    <mergeCell ref="E219:E224"/>
-    <mergeCell ref="D225:D228"/>
-    <mergeCell ref="E225:E228"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="E286:E288"/>
-    <mergeCell ref="D286:D288"/>
-    <mergeCell ref="B286:B288"/>
-    <mergeCell ref="A286:A288"/>
-    <mergeCell ref="E260:E264"/>
-    <mergeCell ref="A260:A264"/>
-    <mergeCell ref="A279:A285"/>
-    <mergeCell ref="D260:D264"/>
-    <mergeCell ref="B279:B285"/>
-    <mergeCell ref="D279:D285"/>
-    <mergeCell ref="E279:E285"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E121" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>